--- a/rayleighk2.xlsx
+++ b/rayleighk2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">n</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t xml:space="preserve">sigma2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max.iter</t>
   </si>
 </sst>
 </file>
@@ -416,10 +419,13 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
@@ -427,32 +433,35 @@
       <c r="C2" t="n">
         <v>15</v>
       </c>
-      <c r="D2" t="n">
-        <v>-3203.44177553841</v>
+      <c r="D2" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>0.594</v>
+        <v>0.5929</v>
       </c>
       <c r="F2" t="n">
-        <v>0.406</v>
+        <v>0.4071</v>
       </c>
       <c r="G2" t="n">
-        <v>3.07028162918606</v>
+        <v>3.04886427791991</v>
       </c>
       <c r="H2" t="n">
-        <v>13.6417902294814</v>
+        <v>13.4380583103827</v>
       </c>
       <c r="I2" t="n">
-        <v>0.302166869460404</v>
+        <v>0.304503199576263</v>
       </c>
       <c r="J2" t="n">
-        <v>0.697833130539597</v>
+        <v>0.695496800423737</v>
       </c>
       <c r="K2" t="n">
-        <v>1.06460960151847</v>
+        <v>0.996134148489813</v>
       </c>
       <c r="L2" t="n">
-        <v>10.1175008155305</v>
+        <v>10.0286244981469</v>
+      </c>
+      <c r="M2" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -492,6 +501,9 @@
       <c r="L3" t="n">
         <v>10.0285091657623</v>
       </c>
+      <c r="M3" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -530,6 +542,9 @@
       <c r="L4" t="n">
         <v>10.1175008155305</v>
       </c>
+      <c r="M4" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -568,6 +583,9 @@
       <c r="L5" t="n">
         <v>10.1169672021354</v>
       </c>
+      <c r="M5" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -605,6 +623,9 @@
       </c>
       <c r="L6" t="n">
         <v>10.1169672021354</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
